--- a/в бланки заводов/Останкино КИ/ostankino_ki/NV_Poliakov/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/NV_Poliakov/moduls/1С.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\NV_Poliakov\moduls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\NV_Poliakov\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54F72B2-CB51-4A1E-967E-773BC979EEC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CD5898-9440-4713-AC74-4B07EF8987CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,18 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>1С</t>
   </si>
@@ -340,6 +334,9 @@
   </si>
   <si>
     <t>СЕРВЕЛАТ КАРЕЛЬСКИЙ в/к в/у 0.28кг_209к</t>
+  </si>
+  <si>
+    <t>РУБЛЕНЫЕ сос ц/о мгс 1*4</t>
   </si>
 </sst>
 </file>
@@ -689,11 +686,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F92" sqref="F92"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1828,6 +1825,17 @@
         <v>101</v>
       </c>
     </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>1001023696767</v>
+      </c>
+      <c r="B103" s="1">
+        <v>1001023696767</v>
+      </c>
+      <c r="C103" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C88" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/NV_Poliakov/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/NV_Poliakov/moduls/1С.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\NV_Poliakov\moduls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\NV_Poliakov\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CD5898-9440-4713-AC74-4B07EF8987CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD134D74-5AB9-406C-B69B-175F3398AF8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$114</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>1С</t>
   </si>
@@ -337,6 +337,39 @@
   </si>
   <si>
     <t>РУБЛЕНЫЕ сос ц/о мгс 1*4</t>
+  </si>
+  <si>
+    <t>БАЛЫК И ШЕЙКА с/в с/н мгс 1/90 8шт.</t>
+  </si>
+  <si>
+    <t>ДОКТОРСКАЯ ПРЕМИУМ вар п/о 0.4кг 8шт.</t>
+  </si>
+  <si>
+    <t>ОХОТНИЧЬЯ Папа может с/к в/у 1/220 8шт.</t>
+  </si>
+  <si>
+    <t>МЯСНАЯ СО ШПИКОМ вар п/о 0.5кг 8шт.</t>
+  </si>
+  <si>
+    <t>МОЛОЧ.ПРЕМИУМ ПМ сос п/о мгс 0.6кг_50с</t>
+  </si>
+  <si>
+    <t>МРАМОРНАЯ И БАЛЫКОВАЯ в/к с/н мгс 1/90</t>
+  </si>
+  <si>
+    <t>МЯСНОЕ АССОРТИ к/з с/н мгс 1/90 10шт.</t>
+  </si>
+  <si>
+    <t>СЛИВОЧНЫЕ ПМ сос п/о мгс 0.41кг 10шт_50с</t>
+  </si>
+  <si>
+    <t>ИТАЛЬЯНСКОЕ АССОРТИ с/в с/н мгс 1/90</t>
+  </si>
+  <si>
+    <t>МОЛОЧНЫЕ КЛАССИЧЕСКИЕ сос п/о в/у 0.3кг</t>
+  </si>
+  <si>
+    <t>ДЛЯ ДЕТЕЙ сос п/о мгс 0.33кг 6шт.</t>
   </si>
 </sst>
 </file>
@@ -686,11 +719,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:C114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1836,8 +1869,129 @@
         <v>102</v>
       </c>
     </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>1001225406754</v>
+      </c>
+      <c r="B104" s="1">
+        <v>1001225406754</v>
+      </c>
+      <c r="C104" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>1001010106325</v>
+      </c>
+      <c r="B105" s="1">
+        <v>1001010106325</v>
+      </c>
+      <c r="C105" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>1001060755931</v>
+      </c>
+      <c r="B106" s="1">
+        <v>1001060755931</v>
+      </c>
+      <c r="C106" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>1001012636337</v>
+      </c>
+      <c r="B107" s="1">
+        <v>1001012636337</v>
+      </c>
+      <c r="C107" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>1001022657074</v>
+      </c>
+      <c r="B108" s="1">
+        <v>1001022657074</v>
+      </c>
+      <c r="C108" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>1001215576586</v>
+      </c>
+      <c r="B109" s="1">
+        <v>1001215576586</v>
+      </c>
+      <c r="C109" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>1001225416228</v>
+      </c>
+      <c r="B110" s="1">
+        <v>1001225416228</v>
+      </c>
+      <c r="C110" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>1001022467080</v>
+      </c>
+      <c r="B111" s="1">
+        <v>1001022467080</v>
+      </c>
+      <c r="C111" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>1001205386222</v>
+      </c>
+      <c r="B112" s="1">
+        <v>1001205386222</v>
+      </c>
+      <c r="C112" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>1001024976616</v>
+      </c>
+      <c r="B113" s="1">
+        <v>1001024976616</v>
+      </c>
+      <c r="C113" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>1001025767284</v>
+      </c>
+      <c r="B114" s="1">
+        <v>1001025767284</v>
+      </c>
+      <c r="C114" t="s">
+        <v>113</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C88" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C114" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/NV_Poliakov/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/NV_Poliakov/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\NV_Poliakov\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD134D74-5AB9-406C-B69B-175F3398AF8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECA9741-E9D7-43BF-8B0E-971BD7D35B9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>1С</t>
   </si>
@@ -370,6 +370,9 @@
   </si>
   <si>
     <t>ДЛЯ ДЕТЕЙ сос п/о мгс 0.33кг 6шт.</t>
+  </si>
+  <si>
+    <t>ФИЛЕЙНЫЕ ПМ сос ц/о мгс 0.33кг 8шт.</t>
   </si>
 </sst>
 </file>
@@ -719,11 +722,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C114"/>
+  <dimension ref="A1:C115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1990,6 +1993,17 @@
         <v>113</v>
       </c>
     </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>1001022557257</v>
+      </c>
+      <c r="B115" s="1">
+        <v>1001022557257</v>
+      </c>
+      <c r="C115" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C114" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
